--- a/excel/TestCase.xlsx
+++ b/excel/TestCase.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="52">
   <si>
     <t>NAME</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t>Login thành công</t>
+  </si>
+  <si>
+    <t>Không thành công</t>
   </si>
   <si>
     <t>Long</t>
@@ -73,7 +76,7 @@
   <si>
     <t>Truy cập vào trang login và nhập 1 user không có trong database 
 Username: test 
-Password: 123</t>
+Password: 123456789</t>
   </si>
   <si>
     <t>Login không thành công và ở lại trang login</t>
@@ -128,7 +131,7 @@
 Thêm người dùng đã có trong database</t>
   </si>
   <si>
-    <t>User_Insert_Test_4</t>
+    <t>User_Update_Test</t>
   </si>
   <si>
     <t>Truy cập vào trang người dùng
@@ -139,10 +142,48 @@
     <t>update thành công</t>
   </si>
   <si>
-    <t>User_Insert_Test_5</t>
+    <t>User_Delete_Test</t>
   </si>
   <si>
     <t>Truy cập vào trang người dùng
+ Nhấn nút delete 
+Xóa người dùng đã có trong database</t>
+  </si>
+  <si>
+    <t>Xóa thành công</t>
+  </si>
+  <si>
+    <t>Test Staff</t>
+  </si>
+  <si>
+    <t>Staff_Insert_Test_1</t>
+  </si>
+  <si>
+    <t>Truy cập vào trang nhân viên
+ Bấm thêm nhân viên 
+ Điền tất cả thông tin</t>
+  </si>
+  <si>
+    <t>Staff_Insert_Test_2</t>
+  </si>
+  <si>
+    <t>Truy cập vào trang người dùng
+ Bấm thêm nhân viên 
+ không điền Salyry</t>
+  </si>
+  <si>
+    <t>Staff_Insert_Test_3</t>
+  </si>
+  <si>
+    <t>Truy cập vào trang người dùng
+ Nhấn nút thêm nhân viên
+Thêm nhân viên đã có trong database</t>
+  </si>
+  <si>
+    <t>Staff_Delete_Test</t>
+  </si>
+  <si>
+    <t>Truy cập vào trang nhân viên
  Nhấn nút delete 
 Xóa người dùng đã có trong database</t>
   </si>
@@ -189,7 +230,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -247,16 +288,16 @@
         <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3">
@@ -270,25 +311,25 @@
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H3" t="b">
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4">
@@ -302,25 +343,25 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" t="s">
         <v>22</v>
       </c>
-      <c r="E4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" t="s">
-        <v>21</v>
-      </c>
       <c r="H4" t="b">
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5">
@@ -334,30 +375,30 @@
         <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H5" t="b">
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
@@ -366,30 +407,30 @@
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H6" t="b">
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
@@ -398,30 +439,30 @@
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H7" t="b">
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
@@ -430,30 +471,30 @@
         <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H8" t="b">
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
@@ -462,30 +503,30 @@
         <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H9" t="b">
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
@@ -494,25 +535,153 @@
         <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F10" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G10" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J10" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" t="b">
+        <v>1</v>
+      </c>
+      <c r="I12" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" t="b">
+        <v>1</v>
+      </c>
+      <c r="I13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" t="s">
+        <v>42</v>
+      </c>
+      <c r="H14" t="b">
+        <v>1</v>
+      </c>
+      <c r="I14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J14" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/excel/TestCase.xlsx
+++ b/excel/TestCase.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="69">
   <si>
     <t>NAME</t>
   </si>
@@ -60,9 +60,6 @@
   </si>
   <si>
     <t>Login thành công</t>
-  </si>
-  <si>
-    <t>Không thành công</t>
   </si>
   <si>
     <t>Long</t>
@@ -161,7 +158,7 @@
   <si>
     <t>Truy cập vào trang nhân viên
  Bấm thêm nhân viên 
- Điền tất cả thông tin</t>
+ Điền tất cả đúng tất cả thông tin</t>
   </si>
   <si>
     <t>Staff_Insert_Test_2</t>
@@ -180,12 +177,73 @@
 Thêm nhân viên đã có trong database</t>
   </si>
   <si>
-    <t>Staff_Delete_Test</t>
+    <t>Staff_Delete_Test_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Truy cập vào trang nhân viên
+ Nhấn nút delete 
+Xóa nhân viên chưa có thành tích </t>
+  </si>
+  <si>
+    <t>Staff_Delete_Test_2</t>
   </si>
   <si>
     <t>Truy cập vào trang nhân viên
  Nhấn nút delete 
-Xóa người dùng đã có trong database</t>
+Xóa nhân viên đã có thành tích</t>
+  </si>
+  <si>
+    <t>Xóa không thành công</t>
+  </si>
+  <si>
+    <t>Test Depart</t>
+  </si>
+  <si>
+    <t>Depart_Insert_Test_1</t>
+  </si>
+  <si>
+    <t>Truy cập vào trang phòng ban
+Nhấn nút thêm phòng ban</t>
+  </si>
+  <si>
+    <t>Depart_Insert_Test_2</t>
+  </si>
+  <si>
+    <t>Truy cập vào trang phòng ban 
+Nhấn nút thêm phòng ban 
+Thêm phòng ban đã có trong database</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>Depart_Update_Test</t>
+  </si>
+  <si>
+    <t>Truy cập vào trang quản lý phòng ban 
+Nhấn nút cập nhật phòng ban 
+Thêm 'updated' vào sau tên phòng ban</t>
+  </si>
+  <si>
+    <t>Cập nhật thành công</t>
+  </si>
+  <si>
+    <t>07/08/2020</t>
+  </si>
+  <si>
+    <t>Depart_Delete_Test</t>
+  </si>
+  <si>
+    <t>Truy cập vào trang quản lý phòng ban, nhấn nút xoá phòng ban, đang được sử dụng</t>
+  </si>
+  <si>
+    <t>Xoá không thành công</t>
+  </si>
+  <si>
+    <t>Truy cập vào trang quản lý phòng ban, nhấn nút xoá phòng ban</t>
+  </si>
+  <si>
+    <t>Xoá thành công</t>
   </si>
 </sst>
 </file>
@@ -230,11 +288,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="11.45703125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="10.25390625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="9.26953125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="20.53125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="75.88671875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="39.3359375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="22.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="7.88671875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="7.53515625" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="11.65625" customWidth="true" bestFit="true"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -288,16 +358,16 @@
         <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3">
@@ -311,25 +381,25 @@
         <v>12</v>
       </c>
       <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
         <v>19</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>20</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>21</v>
       </c>
-      <c r="G3" t="s">
-        <v>22</v>
-      </c>
       <c r="H3" t="b">
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4">
@@ -343,25 +413,25 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
         <v>23</v>
       </c>
-      <c r="E4" t="s">
-        <v>24</v>
-      </c>
       <c r="F4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
         <v>21</v>
       </c>
-      <c r="G4" t="s">
-        <v>22</v>
-      </c>
       <c r="H4" t="b">
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5">
@@ -375,62 +445,62 @@
         <v>12</v>
       </c>
       <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
         <v>25</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>26</v>
       </c>
-      <c r="F5" t="s">
-        <v>27</v>
-      </c>
       <c r="G5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H5" t="b">
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
         <v>28</v>
       </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>29</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>30</v>
       </c>
-      <c r="F6" t="s">
-        <v>31</v>
-      </c>
       <c r="G6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H6" t="b">
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
@@ -439,30 +509,30 @@
         <v>12</v>
       </c>
       <c r="D7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" t="s">
         <v>32</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>33</v>
       </c>
-      <c r="F7" t="s">
-        <v>34</v>
-      </c>
       <c r="G7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H7" t="b">
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
@@ -471,30 +541,30 @@
         <v>12</v>
       </c>
       <c r="D8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" t="s">
         <v>35</v>
       </c>
-      <c r="E8" t="s">
-        <v>36</v>
-      </c>
       <c r="F8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H8" t="b">
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
@@ -503,30 +573,30 @@
         <v>12</v>
       </c>
       <c r="D9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" t="s">
         <v>37</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>38</v>
       </c>
-      <c r="F9" t="s">
-        <v>39</v>
-      </c>
       <c r="G9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H9" t="b">
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
@@ -535,62 +605,62 @@
         <v>12</v>
       </c>
       <c r="D10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" t="s">
         <v>40</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>41</v>
       </c>
-      <c r="F10" t="s">
-        <v>42</v>
-      </c>
       <c r="G10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
         <v>43</v>
       </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>44</v>
       </c>
-      <c r="E11" t="s">
-        <v>45</v>
-      </c>
       <c r="F11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
@@ -599,30 +669,30 @@
         <v>12</v>
       </c>
       <c r="D12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" t="s">
         <v>46</v>
       </c>
-      <c r="E12" t="s">
-        <v>47</v>
-      </c>
       <c r="F12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
@@ -631,30 +701,30 @@
         <v>12</v>
       </c>
       <c r="D13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" t="s">
         <v>48</v>
       </c>
-      <c r="E13" t="s">
-        <v>49</v>
-      </c>
       <c r="F13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B14" t="s">
         <v>11</v>
@@ -663,25 +733,249 @@
         <v>12</v>
       </c>
       <c r="D14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" t="s">
         <v>50</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" t="b">
+        <v>1</v>
+      </c>
+      <c r="I14" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" t="s">
         <v>51</v>
       </c>
-      <c r="F14" t="s">
+      <c r="E15" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15" t="s">
+        <v>53</v>
+      </c>
+      <c r="H15" t="b">
+        <v>1</v>
+      </c>
+      <c r="I15" t="s">
+        <v>16</v>
+      </c>
+      <c r="J15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
         <v>42</v>
       </c>
-      <c r="G14" t="s">
-        <v>42</v>
-      </c>
-      <c r="H14" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J14" t="s">
-        <v>18</v>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" t="s">
+        <v>53</v>
+      </c>
+      <c r="G16" t="s">
+        <v>53</v>
+      </c>
+      <c r="H16" t="b">
+        <v>1</v>
+      </c>
+      <c r="I16" t="s">
+        <v>16</v>
+      </c>
+      <c r="J16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" t="s">
+        <v>30</v>
+      </c>
+      <c r="G17" t="s">
+        <v>30</v>
+      </c>
+      <c r="H17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I17" t="s">
+        <v>16</v>
+      </c>
+      <c r="J17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" t="s">
+        <v>33</v>
+      </c>
+      <c r="H18" t="b">
+        <v>1</v>
+      </c>
+      <c r="I18" t="s">
+        <v>59</v>
+      </c>
+      <c r="J18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19" t="s">
+        <v>62</v>
+      </c>
+      <c r="G19" t="s">
+        <v>62</v>
+      </c>
+      <c r="H19" t="b">
+        <v>1</v>
+      </c>
+      <c r="I19" t="s">
+        <v>59</v>
+      </c>
+      <c r="J19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" t="s">
+        <v>65</v>
+      </c>
+      <c r="F20" t="s">
+        <v>66</v>
+      </c>
+      <c r="G20" t="s">
+        <v>66</v>
+      </c>
+      <c r="H20" t="b">
+        <v>1</v>
+      </c>
+      <c r="I20" t="s">
+        <v>16</v>
+      </c>
+      <c r="J20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" t="s">
+        <v>67</v>
+      </c>
+      <c r="F21" t="s">
+        <v>68</v>
+      </c>
+      <c r="G21" t="s">
+        <v>68</v>
+      </c>
+      <c r="H21" t="b">
+        <v>1</v>
+      </c>
+      <c r="I21" t="s">
+        <v>16</v>
+      </c>
+      <c r="J21" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/excel/TestCase.xlsx
+++ b/excel/TestCase.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="71">
   <si>
     <t>NAME</t>
   </si>
@@ -62,7 +62,7 @@
     <t>Login thành công</t>
   </si>
   <si>
-    <t>Long</t>
+    <t>Thai</t>
   </si>
   <si>
     <t>07/08/2021</t>
@@ -103,11 +103,14 @@
     <t>User_Insert_Test_1</t>
   </si>
   <si>
-    <t xml:space="preserve">Truy cập vào trang người dùng
-</t>
+    <t>Truy cập vào trang người dùng
+Bấm thêm người dùng, Thêm người dùng chưa có trong database</t>
   </si>
   <si>
     <t>Thêm thành công</t>
+  </si>
+  <si>
+    <t>Long</t>
   </si>
   <si>
     <t>User_Insert_Test_2</t>
@@ -159,6 +162,9 @@
     <t>Truy cập vào trang nhân viên
  Bấm thêm nhân viên 
  Điền tất cả đúng tất cả thông tin</t>
+  </si>
+  <si>
+    <t>Duy</t>
   </si>
   <si>
     <t>Staff_Insert_Test_2</t>
@@ -492,7 +498,7 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="J6" t="s">
         <v>17</v>
@@ -509,22 +515,22 @@
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H7" t="b">
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="J7" t="s">
         <v>17</v>
@@ -541,22 +547,22 @@
         <v>12</v>
       </c>
       <c r="D8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" t="s">
         <v>34</v>
       </c>
-      <c r="E8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" t="s">
-        <v>33</v>
-      </c>
       <c r="G8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H8" t="b">
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="J8" t="s">
         <v>17</v>
@@ -573,22 +579,22 @@
         <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H9" t="b">
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="J9" t="s">
         <v>17</v>
@@ -605,22 +611,22 @@
         <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="J10" t="s">
         <v>17</v>
@@ -628,7 +634,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
@@ -637,10 +643,10 @@
         <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
         <v>30</v>
@@ -652,7 +658,7 @@
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="J11" t="s">
         <v>17</v>
@@ -660,7 +666,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
@@ -669,22 +675,22 @@
         <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="J12" t="s">
         <v>17</v>
@@ -692,7 +698,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
@@ -701,22 +707,22 @@
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E13" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="J13" t="s">
         <v>17</v>
@@ -724,31 +730,31 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" t="s">
         <v>42</v>
       </c>
-      <c r="B14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" t="s">
-        <v>49</v>
-      </c>
-      <c r="E14" t="s">
-        <v>50</v>
-      </c>
-      <c r="F14" t="s">
-        <v>41</v>
-      </c>
       <c r="G14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="J14" t="s">
         <v>17</v>
@@ -756,7 +762,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B15" t="s">
         <v>11</v>
@@ -765,22 +771,22 @@
         <v>12</v>
       </c>
       <c r="D15" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E15" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F15" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G15" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H15" t="b">
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="J15" t="s">
         <v>17</v>
@@ -788,7 +794,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B16" t="s">
         <v>11</v>
@@ -797,22 +803,22 @@
         <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E16" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F16" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G16" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="J16" t="s">
         <v>17</v>
@@ -820,7 +826,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B17" t="s">
         <v>11</v>
@@ -829,10 +835,10 @@
         <v>12</v>
       </c>
       <c r="D17" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E17" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F17" t="s">
         <v>30</v>
@@ -844,7 +850,7 @@
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="J17" t="s">
         <v>17</v>
@@ -852,7 +858,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B18" t="s">
         <v>11</v>
@@ -861,22 +867,22 @@
         <v>12</v>
       </c>
       <c r="D18" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E18" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="J18" t="s">
         <v>17</v>
@@ -884,7 +890,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B19" t="s">
         <v>11</v>
@@ -893,30 +899,30 @@
         <v>12</v>
       </c>
       <c r="D19" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E19" t="s">
+        <v>63</v>
+      </c>
+      <c r="F19" t="s">
+        <v>64</v>
+      </c>
+      <c r="G19" t="s">
+        <v>64</v>
+      </c>
+      <c r="H19" t="b">
+        <v>1</v>
+      </c>
+      <c r="I19" t="s">
         <v>61</v>
       </c>
-      <c r="F19" t="s">
-        <v>62</v>
-      </c>
-      <c r="G19" t="s">
-        <v>62</v>
-      </c>
-      <c r="H19" t="b">
-        <v>1</v>
-      </c>
-      <c r="I19" t="s">
-        <v>59</v>
-      </c>
       <c r="J19" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B20" t="s">
         <v>11</v>
@@ -925,22 +931,22 @@
         <v>12</v>
       </c>
       <c r="D20" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E20" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F20" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G20" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H20" t="b">
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="J20" t="s">
         <v>17</v>
@@ -948,7 +954,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B21" t="s">
         <v>11</v>
@@ -957,22 +963,22 @@
         <v>12</v>
       </c>
       <c r="D21" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E21" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F21" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G21" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H21" t="b">
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="J21" t="s">
         <v>17</v>
